--- a/database/industries/lastic/pasa/product/quarterly.xlsx
+++ b/database/industries/lastic/pasa/product/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pasa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B4A8ADE-62B2-4962-A971-FF8489B681D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A27F48-43EB-41E5-9CFC-A00773BAA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="36">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>تایر</t>
@@ -587,12 +587,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -607,7 +607,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -624,7 +624,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -641,7 +641,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -656,7 +656,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -673,7 +673,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +690,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -705,7 +705,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -742,7 +742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -757,7 +757,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -765,38 +765,38 @@
         <v>16</v>
       </c>
       <c r="D10" s="9"/>
-      <c r="E10" s="9">
-        <v>-2267666</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>17</v>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9">
+        <v>3000510</v>
       </c>
       <c r="G10" s="9">
-        <v>3000510</v>
-      </c>
-      <c r="H10" s="9">
         <v>2835306</v>
       </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
+      <c r="H10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="9">
+        <v>10486884</v>
       </c>
       <c r="J10" s="9">
-        <v>10486884</v>
+        <v>3403464</v>
       </c>
       <c r="K10" s="9">
-        <v>3403464</v>
+        <v>3365458</v>
       </c>
       <c r="L10" s="9">
-        <v>3365458</v>
+        <v>3608431</v>
       </c>
       <c r="M10" s="9">
-        <v>3608431</v>
+        <v>3992335</v>
       </c>
       <c r="N10" s="9">
-        <v>3992335</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3477803</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -813,12 +813,12 @@
       <c r="G11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="11">
+      <c r="H11" s="11">
         <v>-2828832</v>
       </c>
+      <c r="I11" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="J11" s="11" t="s">
         <v>17</v>
       </c>
@@ -835,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>19</v>
       </c>
@@ -846,27 +846,27 @@
       <c r="E12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>17</v>
+      <c r="F12" s="9">
+        <v>270314</v>
       </c>
       <c r="G12" s="9">
-        <v>270314</v>
-      </c>
-      <c r="H12" s="9">
         <v>395425</v>
       </c>
+      <c r="H12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>17</v>
+      <c r="J12" s="9">
+        <v>-1000959</v>
       </c>
       <c r="K12" s="9">
-        <v>-1000959</v>
-      </c>
-      <c r="L12" s="9">
         <v>336635</v>
       </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M12" s="9" t="s">
         <v>17</v>
       </c>
@@ -874,7 +874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -882,38 +882,38 @@
         <v>16</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>-544011</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>17</v>
+      <c r="E13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="11">
+        <v>676353</v>
       </c>
       <c r="G13" s="11">
-        <v>676353</v>
-      </c>
-      <c r="H13" s="11">
         <v>449691</v>
       </c>
-      <c r="I13" s="11" t="s">
-        <v>17</v>
+      <c r="H13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1784320</v>
       </c>
       <c r="J13" s="11">
-        <v>1784320</v>
+        <v>644714</v>
       </c>
       <c r="K13" s="11">
-        <v>644714</v>
+        <v>480198</v>
       </c>
       <c r="L13" s="11">
-        <v>480198</v>
+        <v>534170</v>
       </c>
       <c r="M13" s="11">
-        <v>534170</v>
+        <v>498673</v>
       </c>
       <c r="N13" s="11">
-        <v>498673</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>591905</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>20</v>
       </c>
@@ -930,12 +930,12 @@
       <c r="G14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I14" s="9">
+      <c r="H14" s="9">
         <v>-448674</v>
       </c>
+      <c r="I14" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J14" s="9" t="s">
         <v>17</v>
       </c>
@@ -952,7 +952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
@@ -967,8 +967,8 @@
       <c r="G15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>17</v>
+      <c r="H15" s="11">
+        <v>0</v>
       </c>
       <c r="I15" s="11">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>23</v>
       </c>
@@ -1048,26 +1048,26 @@
       <c r="H17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>17</v>
+      <c r="I17" s="11">
+        <v>1000529</v>
       </c>
       <c r="J17" s="11">
-        <v>1000529</v>
+        <v>239703</v>
       </c>
       <c r="K17" s="11">
-        <v>239703</v>
+        <v>0</v>
       </c>
       <c r="L17" s="11">
-        <v>0</v>
+        <v>239851</v>
       </c>
       <c r="M17" s="11">
-        <v>239851</v>
+        <v>150561</v>
       </c>
       <c r="N17" s="11">
-        <v>150561</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>482345</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
         <v>23</v>
       </c>
@@ -1075,8 +1075,8 @@
         <v>18</v>
       </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9">
-        <v>534</v>
+      <c r="E18" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>17</v>
@@ -1084,12 +1084,12 @@
       <c r="G18" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H18" s="9">
         <v>-394695</v>
       </c>
+      <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="J18" s="9" t="s">
         <v>17</v>
       </c>
@@ -1106,44 +1106,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
       <c r="E19" s="13">
-        <v>-2811143</v>
+        <v>0</v>
       </c>
       <c r="F19" s="13">
-        <v>0</v>
+        <v>3947177</v>
       </c>
       <c r="G19" s="13">
-        <v>3947177</v>
+        <v>3680422</v>
       </c>
       <c r="H19" s="13">
-        <v>3680422</v>
+        <v>-3672201</v>
       </c>
       <c r="I19" s="13">
-        <v>-3672201</v>
+        <v>13271733</v>
       </c>
       <c r="J19" s="13">
-        <v>13271733</v>
+        <v>3286922</v>
       </c>
       <c r="K19" s="13">
-        <v>3286922</v>
+        <v>4182291</v>
       </c>
       <c r="L19" s="13">
-        <v>4182291</v>
+        <v>4382452</v>
       </c>
       <c r="M19" s="13">
-        <v>4382452</v>
+        <v>4641569</v>
       </c>
       <c r="N19" s="13">
-        <v>4641569</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4552053</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1158,7 +1158,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1173,7 +1173,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -1188,7 +1188,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>25</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1240,7 +1240,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>15</v>
       </c>
@@ -1251,35 +1251,35 @@
       <c r="E25" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>17</v>
+      <c r="F25" s="9">
+        <v>2989280</v>
       </c>
       <c r="G25" s="9">
-        <v>2989280</v>
-      </c>
-      <c r="H25" s="9">
         <v>3673608</v>
       </c>
-      <c r="I25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="9">
+      <c r="H25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="9">
         <v>2797774</v>
       </c>
-      <c r="K25" s="9" t="s">
-        <v>17</v>
+      <c r="J25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K25" s="9">
+        <v>3798893</v>
       </c>
       <c r="L25" s="9">
-        <v>3798893</v>
+        <v>3900537</v>
       </c>
       <c r="M25" s="9">
-        <v>3900537</v>
+        <v>3189597</v>
       </c>
       <c r="N25" s="9">
-        <v>3189597</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4479428</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>26</v>
       </c>
@@ -1329,15 +1329,15 @@
       <c r="E27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>17</v>
+      <c r="F27" s="9">
+        <v>-167</v>
       </c>
       <c r="G27" s="9">
-        <v>-167</v>
-      </c>
-      <c r="H27" s="9">
         <v>-804</v>
       </c>
+      <c r="H27" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I27" s="9" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>26</v>
       </c>
@@ -1369,12 +1369,12 @@
       <c r="F28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="11">
+      <c r="G28" s="11">
         <v>-804</v>
       </c>
+      <c r="H28" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I28" s="11" t="s">
         <v>17</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
@@ -1405,14 +1405,14 @@
       <c r="E29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>17</v>
+      <c r="F29" s="9">
+        <v>12405</v>
       </c>
       <c r="G29" s="9">
-        <v>12405</v>
-      </c>
-      <c r="H29" s="9">
-        <v>336135</v>
+        <v>0</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="I29" s="9" t="s">
         <v>17</v>
@@ -1420,12 +1420,12 @@
       <c r="J29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="9">
+      <c r="K29" s="9">
         <v>319677</v>
       </c>
+      <c r="L29" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M29" s="9" t="s">
         <v>17</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>20</v>
       </c>
@@ -1444,35 +1444,35 @@
       <c r="E30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>17</v>
+      <c r="F30" s="11">
+        <v>643063</v>
       </c>
       <c r="G30" s="11">
-        <v>643063</v>
-      </c>
-      <c r="H30" s="11">
         <v>854851</v>
       </c>
-      <c r="I30" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="11">
+      <c r="H30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="11">
         <v>761159</v>
       </c>
-      <c r="K30" s="11" t="s">
-        <v>17</v>
+      <c r="J30" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" s="11">
+        <v>623580</v>
       </c>
       <c r="L30" s="11">
-        <v>623580</v>
+        <v>557299</v>
       </c>
       <c r="M30" s="11">
-        <v>557299</v>
+        <v>537779</v>
       </c>
       <c r="N30" s="11">
-        <v>537779</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>628833</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>20</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>21</v>
       </c>
@@ -1520,23 +1520,23 @@
       <c r="E32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>17</v>
+      <c r="F32" s="11">
+        <v>0</v>
       </c>
       <c r="G32" s="11">
         <v>0</v>
       </c>
-      <c r="H32" s="11">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="11">
-        <v>0</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>17</v>
+      <c r="H32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="11">
+        <v>0</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" s="11">
+        <v>0</v>
       </c>
       <c r="L32" s="11">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>22</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
@@ -1607,26 +1607,26 @@
       <c r="H34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I34" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="11">
+      <c r="I34" s="11">
         <v>248738</v>
       </c>
-      <c r="K34" s="11" t="s">
-        <v>17</v>
+      <c r="J34" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" s="11">
+        <v>22</v>
       </c>
       <c r="L34" s="11">
-        <v>22</v>
+        <v>281486</v>
       </c>
       <c r="M34" s="11">
-        <v>281486</v>
+        <v>300741</v>
       </c>
       <c r="N34" s="11">
-        <v>300741</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>370147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>24</v>
       </c>
@@ -1675,34 +1675,34 @@
         <v>0</v>
       </c>
       <c r="F36" s="13">
-        <v>0</v>
+        <v>3644581</v>
       </c>
       <c r="G36" s="13">
-        <v>3644581</v>
+        <v>4526851</v>
       </c>
       <c r="H36" s="13">
-        <v>4862986</v>
+        <v>0</v>
       </c>
       <c r="I36" s="13">
-        <v>0</v>
+        <v>3807671</v>
       </c>
       <c r="J36" s="13">
-        <v>3807671</v>
+        <v>0</v>
       </c>
       <c r="K36" s="13">
-        <v>0</v>
+        <v>4742172</v>
       </c>
       <c r="L36" s="13">
-        <v>4742172</v>
+        <v>4739322</v>
       </c>
       <c r="M36" s="13">
-        <v>4739322</v>
+        <v>4028117</v>
       </c>
       <c r="N36" s="13">
-        <v>4028117</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5478408</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1717,7 +1717,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1732,7 +1732,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1747,7 +1747,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1799,7 +1799,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
         <v>15</v>
       </c>
@@ -1810,35 +1810,35 @@
       <c r="E42" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>17</v>
+      <c r="F42" s="9">
+        <v>1492678</v>
       </c>
       <c r="G42" s="9">
-        <v>1492678</v>
-      </c>
-      <c r="H42" s="9">
         <v>1959052</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J42" s="9">
+      <c r="H42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" s="9">
         <v>1888393</v>
       </c>
-      <c r="K42" s="9" t="s">
-        <v>17</v>
+      <c r="J42" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" s="9">
+        <v>3152991</v>
       </c>
       <c r="L42" s="9">
-        <v>3152991</v>
+        <v>3545059</v>
       </c>
       <c r="M42" s="9">
-        <v>3545059</v>
+        <v>3075478</v>
       </c>
       <c r="N42" s="9">
-        <v>3075478</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4625487</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>26</v>
       </c>
@@ -1849,15 +1849,15 @@
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="11" t="s">
-        <v>17</v>
+      <c r="F43" s="11">
+        <v>-80</v>
       </c>
       <c r="G43" s="11">
-        <v>-80</v>
-      </c>
-      <c r="H43" s="11">
         <v>-534</v>
       </c>
+      <c r="H43" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I43" s="11" t="s">
         <v>17</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>19</v>
       </c>
@@ -1888,27 +1888,27 @@
       <c r="E44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F44" s="9" t="s">
-        <v>17</v>
+      <c r="F44" s="9">
+        <v>3752</v>
       </c>
       <c r="G44" s="9">
-        <v>3752</v>
-      </c>
-      <c r="H44" s="9">
         <v>155903</v>
       </c>
+      <c r="H44" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I44" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K44" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L44" s="9">
+      <c r="K44" s="9">
         <v>192545</v>
       </c>
+      <c r="L44" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M44" s="9" t="s">
         <v>17</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>20</v>
       </c>
@@ -1927,35 +1927,35 @@
       <c r="E45" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="11" t="s">
-        <v>17</v>
+      <c r="F45" s="11">
+        <v>405046</v>
       </c>
       <c r="G45" s="11">
-        <v>405046</v>
-      </c>
-      <c r="H45" s="11">
         <v>555414</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="11">
+      <c r="H45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" s="11">
         <v>589653</v>
       </c>
-      <c r="K45" s="11" t="s">
-        <v>17</v>
+      <c r="J45" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" s="11">
+        <v>565856</v>
       </c>
       <c r="L45" s="11">
-        <v>565856</v>
+        <v>510471</v>
       </c>
       <c r="M45" s="11">
-        <v>510471</v>
+        <v>546772</v>
       </c>
       <c r="N45" s="11">
-        <v>546772</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+        <v>679203</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>21</v>
       </c>
@@ -1966,23 +1966,23 @@
       <c r="E46" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>17</v>
+      <c r="F46" s="9">
+        <v>-6014</v>
       </c>
       <c r="G46" s="9">
-        <v>-6014</v>
-      </c>
-      <c r="H46" s="9">
         <v>-53</v>
       </c>
-      <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="9">
-        <v>0</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>17</v>
+      <c r="H46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>22</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>23</v>
       </c>
@@ -2053,26 +2053,26 @@
       <c r="H48" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="9">
+      <c r="I48" s="9">
         <v>138270</v>
       </c>
-      <c r="K48" s="9" t="s">
-        <v>17</v>
+      <c r="J48" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" s="9">
+        <v>11</v>
       </c>
       <c r="L48" s="9">
-        <v>11</v>
+        <v>179107</v>
       </c>
       <c r="M48" s="9">
-        <v>179107</v>
+        <v>229043</v>
       </c>
       <c r="N48" s="9">
-        <v>229043</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>293377</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="12" t="s">
         <v>24</v>
       </c>
@@ -2082,34 +2082,34 @@
         <v>0</v>
       </c>
       <c r="F49" s="13">
-        <v>0</v>
+        <v>1895382</v>
       </c>
       <c r="G49" s="13">
-        <v>1895382</v>
+        <v>2669782</v>
       </c>
       <c r="H49" s="13">
-        <v>2669782</v>
+        <v>0</v>
       </c>
       <c r="I49" s="13">
-        <v>0</v>
+        <v>2616316</v>
       </c>
       <c r="J49" s="13">
-        <v>2616316</v>
+        <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>0</v>
+        <v>3911403</v>
       </c>
       <c r="L49" s="13">
-        <v>3911403</v>
+        <v>4234637</v>
       </c>
       <c r="M49" s="13">
-        <v>4234637</v>
+        <v>3851293</v>
       </c>
       <c r="N49" s="13">
-        <v>3851293</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5598067</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2124,7 +2124,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2139,7 +2139,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2154,7 +2154,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>30</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2206,7 +2206,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>15</v>
       </c>
@@ -2215,37 +2215,37 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>419524</v>
+        <v>489217</v>
       </c>
       <c r="F55" s="9">
-        <v>489217</v>
+        <v>497942</v>
       </c>
       <c r="G55" s="9">
-        <v>497942</v>
+        <v>533277</v>
       </c>
       <c r="H55" s="9">
-        <v>533277</v>
+        <v>-595433</v>
       </c>
       <c r="I55" s="9">
-        <v>-595433</v>
+        <v>187149</v>
       </c>
       <c r="J55" s="9">
-        <v>187149</v>
+        <v>679555</v>
       </c>
       <c r="K55" s="9">
-        <v>679555</v>
+        <v>829976</v>
       </c>
       <c r="L55" s="9">
-        <v>829976</v>
+        <v>908864</v>
       </c>
       <c r="M55" s="9">
-        <v>908864</v>
+        <v>964222</v>
       </c>
       <c r="N55" s="9">
-        <v>964222</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1032607</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>26</v>
       </c>
@@ -2253,18 +2253,18 @@
         <v>32</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>227639</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>17</v>
+      <c r="E56" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="11">
+        <v>479042</v>
       </c>
       <c r="G56" s="11">
-        <v>479042</v>
-      </c>
-      <c r="H56" s="11">
         <v>664179</v>
       </c>
+      <c r="H56" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I56" s="11" t="s">
         <v>17</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>19</v>
       </c>
@@ -2292,30 +2292,30 @@
         <v>31</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="9">
-        <v>280562</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>17</v>
+      <c r="E57" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="9">
+        <v>25505925</v>
       </c>
       <c r="G57" s="9">
-        <v>1137225</v>
-      </c>
-      <c r="H57" s="9">
         <v>463811</v>
       </c>
+      <c r="H57" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I57" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J57" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L57" s="9">
+      <c r="K57" s="9">
         <v>602311</v>
       </c>
+      <c r="L57" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M57" s="9" t="s">
         <v>17</v>
       </c>
@@ -2323,7 +2323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>20</v>
       </c>
@@ -2332,37 +2332,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>534897</v>
+        <v>637788</v>
       </c>
       <c r="F58" s="11">
-        <v>637788</v>
+        <v>629873</v>
       </c>
       <c r="G58" s="11">
-        <v>629873</v>
+        <v>649720</v>
       </c>
       <c r="H58" s="11">
-        <v>649720</v>
+        <v>-704858</v>
       </c>
       <c r="I58" s="11">
-        <v>-704858</v>
+        <v>248005</v>
       </c>
       <c r="J58" s="11">
-        <v>248005</v>
+        <v>748086</v>
       </c>
       <c r="K58" s="11">
-        <v>748086</v>
+        <v>907431</v>
       </c>
       <c r="L58" s="11">
-        <v>907431</v>
+        <v>915973</v>
       </c>
       <c r="M58" s="11">
-        <v>915973</v>
+        <v>1016722</v>
       </c>
       <c r="N58" s="11">
-        <v>1016722</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1080101</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>21</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>22</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>23</v>
       </c>
@@ -2457,29 +2457,29 @@
       <c r="G61" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H61" s="9" t="s">
-        <v>17</v>
+      <c r="H61" s="9">
+        <v>-1016477</v>
       </c>
       <c r="I61" s="9">
-        <v>-1016477</v>
+        <v>146845</v>
       </c>
       <c r="J61" s="9">
-        <v>146845</v>
+        <v>558007</v>
       </c>
       <c r="K61" s="9">
-        <v>558007</v>
+        <v>500000</v>
       </c>
       <c r="L61" s="9">
-        <v>500000</v>
+        <v>636291</v>
       </c>
       <c r="M61" s="9">
-        <v>636291</v>
+        <v>761596</v>
       </c>
       <c r="N61" s="9">
-        <v>761596</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>792596</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2494,7 +2494,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2509,7 +2509,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2524,7 +2524,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>34</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2576,7 +2576,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
         <v>15</v>
       </c>
@@ -2584,38 +2584,38 @@
         <v>29</v>
       </c>
       <c r="D67" s="9"/>
-      <c r="E67" s="9">
-        <v>-855365</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>17</v>
+      <c r="E67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="9">
+        <v>-1172853</v>
       </c>
       <c r="G67" s="9">
-        <v>-1172853</v>
-      </c>
-      <c r="H67" s="9">
         <v>-1534204</v>
       </c>
-      <c r="I67" s="9" t="s">
-        <v>17</v>
+      <c r="H67" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" s="9">
+        <v>-1529633</v>
       </c>
       <c r="J67" s="9">
-        <v>-1529633</v>
+        <v>-1548415</v>
       </c>
       <c r="K67" s="9">
-        <v>-1548415</v>
+        <v>-2351823</v>
       </c>
       <c r="L67" s="9">
-        <v>-2351823</v>
+        <v>-2734980</v>
       </c>
       <c r="M67" s="9">
-        <v>-2734980</v>
+        <v>-2365343</v>
       </c>
       <c r="N67" s="9">
-        <v>-2365343</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3530610</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>26</v>
       </c>
@@ -2623,17 +2623,17 @@
         <v>29</v>
       </c>
       <c r="D68" s="11"/>
-      <c r="E68" s="11">
-        <v>0</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>17</v>
+      <c r="E68" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" s="11">
+        <v>0</v>
       </c>
       <c r="G68" s="11">
         <v>0</v>
       </c>
-      <c r="H68" s="11">
-        <v>0</v>
+      <c r="H68" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="I68" s="11" t="s">
         <v>17</v>
@@ -2654,7 +2654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>19</v>
       </c>
@@ -2662,30 +2662,30 @@
         <v>29</v>
       </c>
       <c r="D69" s="9"/>
-      <c r="E69" s="9">
-        <v>-49785</v>
-      </c>
-      <c r="F69" s="9" t="s">
-        <v>17</v>
+      <c r="E69" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="9">
+        <v>-2891</v>
       </c>
       <c r="G69" s="9">
-        <v>-2891</v>
-      </c>
-      <c r="H69" s="9">
         <v>-130089</v>
       </c>
+      <c r="H69" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I69" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>17</v>
+      <c r="J69" s="9">
+        <v>0</v>
       </c>
       <c r="K69" s="9">
-        <v>0</v>
-      </c>
-      <c r="L69" s="9">
         <v>-160221</v>
       </c>
+      <c r="L69" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M69" s="9" t="s">
         <v>17</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>20</v>
       </c>
@@ -2701,38 +2701,38 @@
         <v>29</v>
       </c>
       <c r="D70" s="11"/>
-      <c r="E70" s="11">
-        <v>-260521</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>17</v>
+      <c r="E70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F70" s="11">
+        <v>-318935</v>
       </c>
       <c r="G70" s="11">
-        <v>-318935</v>
-      </c>
-      <c r="H70" s="11">
         <v>-427106</v>
       </c>
-      <c r="I70" s="11" t="s">
-        <v>17</v>
+      <c r="H70" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I70" s="11">
+        <v>-486805</v>
       </c>
       <c r="J70" s="11">
-        <v>-486805</v>
+        <v>-400855</v>
       </c>
       <c r="K70" s="11">
-        <v>-400855</v>
+        <v>-500066</v>
       </c>
       <c r="L70" s="11">
-        <v>-500066</v>
+        <v>-514664</v>
       </c>
       <c r="M70" s="11">
-        <v>-514664</v>
+        <v>-516671</v>
       </c>
       <c r="N70" s="11">
-        <v>-516671</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-741267</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>21</v>
       </c>
@@ -2740,20 +2740,20 @@
         <v>29</v>
       </c>
       <c r="D71" s="9"/>
-      <c r="E71" s="9">
-        <v>0</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>17</v>
+      <c r="E71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="9">
+        <v>0</v>
       </c>
       <c r="G71" s="9">
         <v>0</v>
       </c>
-      <c r="H71" s="9">
-        <v>0</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>17</v>
+      <c r="H71" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I71" s="9">
+        <v>0</v>
       </c>
       <c r="J71" s="9">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>23</v>
       </c>
@@ -2791,63 +2791,63 @@
       <c r="H72" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="11" t="s">
-        <v>17</v>
+      <c r="I72" s="11">
+        <v>-99160</v>
       </c>
       <c r="J72" s="11">
-        <v>-99160</v>
+        <v>-125596</v>
       </c>
       <c r="K72" s="11">
-        <v>-125596</v>
+        <v>0</v>
       </c>
       <c r="L72" s="11">
-        <v>0</v>
+        <v>-153921</v>
       </c>
       <c r="M72" s="11">
-        <v>-153921</v>
+        <v>-162633</v>
       </c>
       <c r="N72" s="11">
-        <v>-162633</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-259115</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15">
-        <v>-1165671</v>
+        <v>0</v>
       </c>
       <c r="F73" s="15">
-        <v>0</v>
+        <v>-1494679</v>
       </c>
       <c r="G73" s="15">
-        <v>-1494679</v>
+        <v>-2091399</v>
       </c>
       <c r="H73" s="15">
-        <v>-2091399</v>
+        <v>0</v>
       </c>
       <c r="I73" s="15">
-        <v>0</v>
+        <v>-2115598</v>
       </c>
       <c r="J73" s="15">
-        <v>-2115598</v>
+        <v>-2074866</v>
       </c>
       <c r="K73" s="15">
-        <v>-2074866</v>
+        <v>-3012110</v>
       </c>
       <c r="L73" s="15">
-        <v>-3012110</v>
+        <v>-3403565</v>
       </c>
       <c r="M73" s="15">
-        <v>-3403565</v>
+        <v>-3044647</v>
       </c>
       <c r="N73" s="15">
-        <v>-3044647</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4530992</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2862,7 +2862,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2877,7 +2877,7 @@
       <c r="M75" s="1"/>
       <c r="N75" s="1"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -2892,7 +2892,7 @@
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
     </row>
-    <row r="77" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B77" s="7" t="s">
         <v>35</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -2944,7 +2944,7 @@
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>15</v>
       </c>
@@ -2952,38 +2952,38 @@
         <v>29</v>
       </c>
       <c r="D79" s="9"/>
-      <c r="E79" s="9">
-        <v>785614</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>17</v>
+      <c r="E79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="9">
+        <v>314459</v>
       </c>
       <c r="G79" s="9">
-        <v>314459</v>
-      </c>
-      <c r="H79" s="9">
         <v>424848</v>
       </c>
-      <c r="I79" s="9" t="s">
-        <v>17</v>
+      <c r="H79" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="9">
+        <v>358761</v>
       </c>
       <c r="J79" s="9">
-        <v>358761</v>
+        <v>283849</v>
       </c>
       <c r="K79" s="9">
-        <v>283849</v>
+        <v>801168</v>
       </c>
       <c r="L79" s="9">
-        <v>801168</v>
+        <v>810079</v>
       </c>
       <c r="M79" s="9">
-        <v>810079</v>
+        <v>710135</v>
       </c>
       <c r="N79" s="9">
-        <v>710135</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1094877</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>26</v>
       </c>
@@ -2991,18 +2991,18 @@
         <v>29</v>
       </c>
       <c r="D80" s="11"/>
-      <c r="E80" s="11">
-        <v>-537</v>
-      </c>
-      <c r="F80" s="11" t="s">
-        <v>17</v>
+      <c r="E80" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="11">
+        <v>-80</v>
       </c>
       <c r="G80" s="11">
-        <v>-80</v>
-      </c>
-      <c r="H80" s="11">
         <v>-534</v>
       </c>
+      <c r="H80" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="I80" s="11" t="s">
         <v>17</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>19</v>
       </c>
@@ -3030,30 +3030,30 @@
         <v>29</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9">
-        <v>30544</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>17</v>
+      <c r="E81" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="9">
+        <v>861</v>
       </c>
       <c r="G81" s="9">
-        <v>861</v>
-      </c>
-      <c r="H81" s="9">
         <v>25814</v>
       </c>
+      <c r="H81" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="I81" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J81" s="9" t="s">
-        <v>17</v>
+      <c r="J81" s="9">
+        <v>0</v>
       </c>
       <c r="K81" s="9">
-        <v>0</v>
-      </c>
-      <c r="L81" s="9">
         <v>32324</v>
       </c>
+      <c r="L81" s="9" t="s">
+        <v>17</v>
+      </c>
       <c r="M81" s="9" t="s">
         <v>17</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>20</v>
       </c>
@@ -3069,38 +3069,38 @@
         <v>29</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11">
-        <v>200631</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>17</v>
+      <c r="E82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="11">
+        <v>86113</v>
       </c>
       <c r="G82" s="11">
-        <v>86113</v>
-      </c>
-      <c r="H82" s="11">
         <v>128308</v>
       </c>
-      <c r="I82" s="11" t="s">
-        <v>17</v>
+      <c r="H82" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I82" s="11">
+        <v>102848</v>
       </c>
       <c r="J82" s="11">
-        <v>102848</v>
+        <v>-85239</v>
       </c>
       <c r="K82" s="11">
-        <v>-85239</v>
+        <v>65790</v>
       </c>
       <c r="L82" s="11">
-        <v>65790</v>
+        <v>-4193</v>
       </c>
       <c r="M82" s="11">
-        <v>-4193</v>
+        <v>30101</v>
       </c>
       <c r="N82" s="11">
-        <v>30101</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-62064</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>21</v>
       </c>
@@ -3108,20 +3108,20 @@
         <v>29</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9">
-        <v>-4828</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>17</v>
+      <c r="E83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="9">
+        <v>-1187</v>
       </c>
       <c r="G83" s="9">
-        <v>-1187</v>
-      </c>
-      <c r="H83" s="9">
         <v>-53</v>
       </c>
-      <c r="I83" s="9" t="s">
-        <v>17</v>
+      <c r="H83" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="9">
+        <v>0</v>
       </c>
       <c r="J83" s="9">
         <v>0</v>
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>23</v>
       </c>
@@ -3159,60 +3159,60 @@
       <c r="H84" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I84" s="11" t="s">
-        <v>17</v>
+      <c r="I84" s="11">
+        <v>39110</v>
       </c>
       <c r="J84" s="11">
-        <v>39110</v>
+        <v>3196</v>
       </c>
       <c r="K84" s="11">
-        <v>3196</v>
+        <v>11</v>
       </c>
       <c r="L84" s="11">
-        <v>11</v>
+        <v>25186</v>
       </c>
       <c r="M84" s="11">
-        <v>25186</v>
+        <v>66410</v>
       </c>
       <c r="N84" s="11">
-        <v>66410</v>
-      </c>
-    </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34262</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C85" s="15"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15">
-        <v>1011424</v>
+        <v>0</v>
       </c>
       <c r="F85" s="15">
-        <v>0</v>
+        <v>400166</v>
       </c>
       <c r="G85" s="15">
-        <v>400166</v>
+        <v>578383</v>
       </c>
       <c r="H85" s="15">
-        <v>578383</v>
+        <v>0</v>
       </c>
       <c r="I85" s="15">
-        <v>0</v>
+        <v>500719</v>
       </c>
       <c r="J85" s="15">
-        <v>500719</v>
+        <v>201806</v>
       </c>
       <c r="K85" s="15">
-        <v>201806</v>
+        <v>899293</v>
       </c>
       <c r="L85" s="15">
-        <v>899293</v>
+        <v>831072</v>
       </c>
       <c r="M85" s="15">
-        <v>831072</v>
+        <v>806646</v>
       </c>
       <c r="N85" s="15">
-        <v>806646</v>
+        <v>1067075</v>
       </c>
     </row>
   </sheetData>
